--- a/Meilensteine/Meilenstein 6/AbfragenRelevantGeorgErichR.xlsx
+++ b/Meilensteine/Meilenstein 6/AbfragenRelevantGeorgErichR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\GitHub\MyCo-Gruppe-3\Meilensteine\Meilenstein 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556A827-A5D6-419A-8D4E-14B3965F09E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A543980-A61D-4B94-B64B-47AB85A3FF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$B$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$B$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="202">
   <si>
     <t>56113newsML.xml</t>
   </si>
@@ -324,36 +324,6 @@
     <t>nuclear waste germany</t>
   </si>
   <si>
-    <t>berlin wall 1991</t>
-  </si>
-  <si>
-    <t>berlin wall 1992</t>
-  </si>
-  <si>
-    <t>berlin wall 1993</t>
-  </si>
-  <si>
-    <t>berlin wall 1994</t>
-  </si>
-  <si>
-    <t>berlin wall 1995</t>
-  </si>
-  <si>
-    <t>berlin wall 1996</t>
-  </si>
-  <si>
-    <t>berlin wall 1997</t>
-  </si>
-  <si>
-    <t>berlin wall 1998</t>
-  </si>
-  <si>
-    <t>berlin wall 1999</t>
-  </si>
-  <si>
-    <t>berlin wall 2000</t>
-  </si>
-  <si>
     <t>michael jackson</t>
   </si>
   <si>
@@ -376,6 +346,300 @@
   </si>
   <si>
     <t>Audi</t>
+  </si>
+  <si>
+    <t>810542newsML</t>
+  </si>
+  <si>
+    <t>363516newsML</t>
+  </si>
+  <si>
+    <t>800021newsML</t>
+  </si>
+  <si>
+    <t>785333newsML</t>
+  </si>
+  <si>
+    <t>686527newsML</t>
+  </si>
+  <si>
+    <t>441607newsML</t>
+  </si>
+  <si>
+    <t>439750newsML</t>
+  </si>
+  <si>
+    <t>436786newsML</t>
+  </si>
+  <si>
+    <t>berlin wall 1989</t>
+  </si>
+  <si>
+    <t>800818newsML</t>
+  </si>
+  <si>
+    <t>794798newsML</t>
+  </si>
+  <si>
+    <t>794803newsML</t>
+  </si>
+  <si>
+    <t>759972newsML</t>
+  </si>
+  <si>
+    <t>758033newsML</t>
+  </si>
+  <si>
+    <t>810668newsML</t>
+  </si>
+  <si>
+    <t>806937newsML</t>
+  </si>
+  <si>
+    <t>800693newsML</t>
+  </si>
+  <si>
+    <t>798250newsML</t>
+  </si>
+  <si>
+    <t>797127newsML</t>
+  </si>
+  <si>
+    <t>804371newsML</t>
+  </si>
+  <si>
+    <t>802561newsML</t>
+  </si>
+  <si>
+    <t>800948newsML</t>
+  </si>
+  <si>
+    <t>800461newsML</t>
+  </si>
+  <si>
+    <t>797790newsML</t>
+  </si>
+  <si>
+    <t>795859newsML</t>
+  </si>
+  <si>
+    <t>792115newsML</t>
+  </si>
+  <si>
+    <t>790678newsML</t>
+  </si>
+  <si>
+    <t>790311newsML</t>
+  </si>
+  <si>
+    <t>787952newsML</t>
+  </si>
+  <si>
+    <t>705319newsML</t>
+  </si>
+  <si>
+    <t>703909newsML</t>
+  </si>
+  <si>
+    <t>703410newsML</t>
+  </si>
+  <si>
+    <t>697306newsML</t>
+  </si>
+  <si>
+    <t>687347newsML</t>
+  </si>
+  <si>
+    <t>654560newsML</t>
+  </si>
+  <si>
+    <t>641368newsML</t>
+  </si>
+  <si>
+    <t>515522newsML</t>
+  </si>
+  <si>
+    <t>272105newsML</t>
+  </si>
+  <si>
+    <t>271435newsML</t>
+  </si>
+  <si>
+    <t>799627newsML</t>
+  </si>
+  <si>
+    <t>764906newsML</t>
+  </si>
+  <si>
+    <t>757768newsML</t>
+  </si>
+  <si>
+    <t>701107newsML</t>
+  </si>
+  <si>
+    <t>695743newsML</t>
+  </si>
+  <si>
+    <t>599428newsML</t>
+  </si>
+  <si>
+    <t>593136newsML</t>
+  </si>
+  <si>
+    <t>809740newsML</t>
+  </si>
+  <si>
+    <t>807582newsML</t>
+  </si>
+  <si>
+    <t>806876newsML</t>
+  </si>
+  <si>
+    <t>574840newsML</t>
+  </si>
+  <si>
+    <t>500397newsML</t>
+  </si>
+  <si>
+    <t>489457newsML</t>
+  </si>
+  <si>
+    <t>489479newsML</t>
+  </si>
+  <si>
+    <t>487324newsML</t>
+  </si>
+  <si>
+    <t>487323newsML</t>
+  </si>
+  <si>
+    <t>97968newsML</t>
+  </si>
+  <si>
+    <t>810861newsML</t>
+  </si>
+  <si>
+    <t>807149newsML</t>
+  </si>
+  <si>
+    <t>798801newsML</t>
+  </si>
+  <si>
+    <t>786911newsML</t>
+  </si>
+  <si>
+    <t>532387newsML</t>
+  </si>
+  <si>
+    <t>350025newsML</t>
+  </si>
+  <si>
+    <t>341094newsML</t>
+  </si>
+  <si>
+    <t>341036newsML</t>
+  </si>
+  <si>
+    <t>301897newsML</t>
+  </si>
+  <si>
+    <t>191926newsML</t>
+  </si>
+  <si>
+    <t>810666newsML</t>
+  </si>
+  <si>
+    <t>799526newsML</t>
+  </si>
+  <si>
+    <t>783740newsML</t>
+  </si>
+  <si>
+    <t>9634newsML</t>
+  </si>
+  <si>
+    <t>12508newsML</t>
+  </si>
+  <si>
+    <t>12509newsML</t>
+  </si>
+  <si>
+    <t>11863newsML</t>
+  </si>
+  <si>
+    <t>12525newsML</t>
+  </si>
+  <si>
+    <t>11208newsML</t>
+  </si>
+  <si>
+    <t>9192newsML</t>
+  </si>
+  <si>
+    <t>8938newsML</t>
+  </si>
+  <si>
+    <t>12522newsML</t>
+  </si>
+  <si>
+    <t>12372newsML</t>
+  </si>
+  <si>
+    <t>5388newsML</t>
+  </si>
+  <si>
+    <t>4382newsML</t>
+  </si>
+  <si>
+    <t>5390newsML</t>
+  </si>
+  <si>
+    <t>10823newsML</t>
+  </si>
+  <si>
+    <t>10096newsML</t>
+  </si>
+  <si>
+    <t>11786newsML</t>
+  </si>
+  <si>
+    <t>10726newsML</t>
+  </si>
+  <si>
+    <t>10573newsML</t>
+  </si>
+  <si>
+    <t>10578newsML</t>
+  </si>
+  <si>
+    <t>10581newsML</t>
+  </si>
+  <si>
+    <t>7318newsML</t>
+  </si>
+  <si>
+    <t>12445newsML</t>
+  </si>
+  <si>
+    <t>11951newsML</t>
+  </si>
+  <si>
+    <t>11708newsML</t>
+  </si>
+  <si>
+    <t>8583newsML</t>
+  </si>
+  <si>
+    <t>12369newsML</t>
+  </si>
+  <si>
+    <t>10873newsML</t>
+  </si>
+  <si>
+    <t>6569newsML</t>
+  </si>
+  <si>
+    <t>6766newsML</t>
   </si>
 </sst>
 </file>
@@ -733,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C101"/>
+  <dimension ref="A2:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C101"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,109 +1121,109 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -967,10 +1231,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -978,10 +1242,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -989,10 +1253,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1000,10 +1264,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1011,10 +1275,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1022,10 +1286,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1033,10 +1297,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1044,10 +1308,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1055,10 +1319,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1066,120 +1330,120 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1187,10 +1451,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1198,10 +1462,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1209,10 +1473,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1220,10 +1484,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1231,10 +1495,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1242,10 +1506,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1253,10 +1517,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1264,10 +1528,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1275,10 +1539,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1286,120 +1550,120 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1407,10 +1671,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1418,10 +1682,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1429,10 +1693,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1440,10 +1704,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1451,10 +1715,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1462,10 +1726,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1473,10 +1737,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1484,10 +1748,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1495,10 +1759,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1506,120 +1770,120 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1627,10 +1891,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1638,10 +1902,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1649,10 +1913,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1660,10 +1924,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1671,10 +1935,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1682,10 +1946,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1693,10 +1957,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1704,10 +1968,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1715,10 +1979,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1726,123 +1990,1223 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>100</v>
+      </c>
+      <c r="B132" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>100</v>
+      </c>
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>100</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>101</v>
+      </c>
+      <c r="B141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>101</v>
+      </c>
+      <c r="B144" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>101</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>101</v>
+      </c>
+      <c r="B146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>101</v>
+      </c>
+      <c r="B148" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>101</v>
+      </c>
+      <c r="B157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" t="s">
+        <v>181</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>102</v>
+      </c>
+      <c r="B161" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>102</v>
+      </c>
+      <c r="B164" t="s">
+        <v>78</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>102</v>
+      </c>
+      <c r="B165" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>102</v>
+      </c>
+      <c r="B166" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>102</v>
+      </c>
+      <c r="B168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>102</v>
+      </c>
+      <c r="B170" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>102</v>
+      </c>
+      <c r="B171" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>102</v>
+      </c>
+      <c r="B172" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>102</v>
+      </c>
+      <c r="B173" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B175" t="s">
+        <v>187</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>102</v>
+      </c>
+      <c r="B176" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>102</v>
+      </c>
+      <c r="B177" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>102</v>
+      </c>
+      <c r="B178" t="s">
+        <v>190</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>102</v>
+      </c>
+      <c r="B179" t="s">
+        <v>191</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>102</v>
+      </c>
+      <c r="B180" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>103</v>
+      </c>
+      <c r="B181" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>103</v>
+      </c>
+      <c r="B182" t="s">
+        <v>87</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>103</v>
+      </c>
+      <c r="B183" t="s">
+        <v>86</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>103</v>
+      </c>
+      <c r="B184" t="s">
+        <v>88</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>103</v>
+      </c>
+      <c r="B185" t="s">
+        <v>89</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>103</v>
+      </c>
+      <c r="B186" t="s">
+        <v>90</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>103</v>
+      </c>
+      <c r="B187" t="s">
+        <v>91</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>103</v>
+      </c>
+      <c r="B188" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>103</v>
+      </c>
+      <c r="B189" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>103</v>
+      </c>
+      <c r="B190" t="s">
         <v>94</v>
       </c>
-      <c r="C101">
-        <v>1</v>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>103</v>
+      </c>
+      <c r="B191" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>103</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>103</v>
+      </c>
+      <c r="B193" t="s">
+        <v>173</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>103</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>103</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>103</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>103</v>
+      </c>
+      <c r="B197" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>103</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
